--- a/Data/Bystrategi_Grenland/Trafikk/Reisemiddelfordeling_AlleReiser_2005_til_2024.xlsx
+++ b/Data/Bystrategi_Grenland/Trafikk/Reisemiddelfordeling_AlleReiser_2005_til_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke.sharepoint.com/sites/AnalysenettverketiTFK/Delte dokumenter/Generelt/Prosjekter/Regional plan for areal og mobilitet i Grenland/Delmål og indikatorer bystrategi Grenland/RVU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/kjell-tore_haustveit_telemarkfylke_no/Documents/GitHub/Telemark/Data/Bystrategi_Grenland/Trafikk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{B17C5C38-29E4-4522-B170-C2AD8B6082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC8A35B-E945-4B43-90D1-E5D7EB7033B4}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{B17C5C38-29E4-4522-B170-C2AD8B6082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEFEFF77-E75F-47C3-8239-F8A85036B343}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20055" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1284" windowWidth="25488" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>Kommune</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Hele landet</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -475,23 +487,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -550,7 +562,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -610,7 +622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -640,7 +652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -670,7 +682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -700,7 +712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -730,7 +742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -760,7 +772,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -790,7 +802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -820,7 +832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -850,7 +862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -880,7 +892,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -910,7 +922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -940,7 +952,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -970,7 +982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1237,6 +1249,209 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>55</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>53</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
         <v>100</v>
       </c>
     </row>
@@ -1453,15 +1668,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="aeab8c92-4fe2-4b74-b3c0-181f164372e7">
@@ -1470,6 +1676,15 @@
     <TaxCatchAll xmlns="28a90a7f-539e-46e9-b8b5-332cc23d9dd7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1492,14 +1707,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1915611-9028-4F81-BF7B-9404A03116EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700F5C-A0F8-41B7-AD2F-910ACCC30B1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1508,4 +1715,12 @@
     <ds:schemaRef ds:uri="28a90a7f-539e-46e9-b8b5-332cc23d9dd7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1915611-9028-4F81-BF7B-9404A03116EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Bystrategi_Grenland/Trafikk/Reisemiddelfordeling_AlleReiser_2005_til_2024.xlsx
+++ b/Data/Bystrategi_Grenland/Trafikk/Reisemiddelfordeling_AlleReiser_2005_til_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/kjell-tore_haustveit_telemarkfylke_no/Documents/GitHub/Telemark/Data/Bystrategi_Grenland/Trafikk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{B17C5C38-29E4-4522-B170-C2AD8B6082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEFEFF77-E75F-47C3-8239-F8A85036B343}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B17C5C38-29E4-4522-B170-C2AD8B6082BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F198C61-BE31-4267-B1EF-9C5E8D634DE6}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1284" windowWidth="25488" windowHeight="15996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10932" yWindow="624" windowWidth="21348" windowHeight="14916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Kommune</t>
   </si>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,6 +1452,35 @@
         <v>1</v>
       </c>
       <c r="I32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>47</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
         <v>100</v>
       </c>
     </row>
@@ -1668,6 +1697,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="aeab8c92-4fe2-4b74-b3c0-181f164372e7">
@@ -1676,15 +1714,6 @@
     <TaxCatchAll xmlns="28a90a7f-539e-46e9-b8b5-332cc23d9dd7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1707,6 +1736,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1915611-9028-4F81-BF7B-9404A03116EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700F5C-A0F8-41B7-AD2F-910ACCC30B1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1715,12 +1752,4 @@
     <ds:schemaRef ds:uri="28a90a7f-539e-46e9-b8b5-332cc23d9dd7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1915611-9028-4F81-BF7B-9404A03116EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>